--- a/data/Test.xlsx
+++ b/data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holde\_Villanova\Junior Spring\Machine-Learning\_final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69AAD8E7-0233-4032-9718-0CC997C43E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0FA8B-879F-4D4A-BF7C-7E1F79BB02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOOGL-US" sheetId="2" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>Other Expense</t>
   </si>
   <si>
-    <t>Dates</t>
+    <t>Features</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1708,9 +1708,7 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="15" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.4"/>
   <cols>
